--- a/biology/Médecine/Léon-Gabriel_Toraude/Léon-Gabriel_Toraude.xlsx
+++ b/biology/Médecine/Léon-Gabriel_Toraude/Léon-Gabriel_Toraude.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on-Gabriel_Toraude</t>
+          <t>Léon-Gabriel_Toraude</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Léon Gabriel Toraude (Saumur, 7 octobre 1868 - Paris, 24 septembre 1945[1]) est un pharmacien français, rendu célèbre notamment pour ses écrits.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Léon Gabriel Toraude (Saumur, 7 octobre 1868 - Paris, 24 septembre 1945) est un pharmacien français, rendu célèbre notamment pour ses écrits.
 Le livre qui le rendra célèbre est Bernard Courtois (1777-1838) et la découverte de l'iode (1811), Paris, Vigot, 1921. In-8, VIII, 164 pages, 1pl. broché 1 planche et plusieurs illustrations in texte en noir. Il s'agit d'un ouvrage écrit dans le cadre d'une thèse pour l'obtention du diplôme de docteur de l'Université de pharmacie, par L.-G. Toraude, alors pharmacien de 1re classe.
 Il a également écrit : 
 Les Galéniennes. Fantaisies rimées en marge du codex, Paris, Vigot frères, 1919
